--- a/biology/Botanique/Thalassiosira/Thalassiosira.xlsx
+++ b/biology/Botanique/Thalassiosira/Thalassiosira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalassiosira est un genre de diatomées de la famille des Thalassiosiraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (6 février 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (6 février 2019) :
 Thalassiosira aculeata Proshkina-Lavrenko
 Thalassiosira adeliae Manguin (Sans vérification)
 Thalassiosira aestivalis Gran
@@ -710,7 +724,7 @@
 Thalassiosira yabei (T.Kanaya) F.Akiba &amp; Y.Yanagisawa
 Thalassiosira yunnaniana Khursevich &amp; Kociolek
 Thalassiosira zabelinae Jousé
-Selon Catalogue of Life                                  (6 février 2019)[2] :
+Selon Catalogue of Life                                  (6 février 2019) :
 Thalassiosira adeliae Manguin
 Thalassiosira aestivalis
 Thalassiosira angulata (Gregory, 1857) Hasle, 1978
@@ -764,7 +778,7 @@
 Thalassiosira tumida (Janisch) Hasle
 Thalassiosira visurgis Hust.
 Thalassiosira weissflogii (Grunow) Fryxell &amp; Hasle
-Selon ITIS      (6 février 2019)[3] :
+Selon ITIS      (6 février 2019) :
 Thalassiosira adeliae Manguin
 Thalassiosira aestivalis
 Thalassiosira angulata (Gregory, 1857) Hasle, 1978
@@ -818,7 +832,7 @@
 Thalassiosira tumida (Janisch) Hasle
 Thalassiosira visurgis Hust.
 Thalassiosira weissflogii (Grunow) Fryxell &amp; Hasle
-Selon World Register of Marine Species                               (6 février 2019)[4] :
+Selon World Register of Marine Species                               (6 février 2019) :
 Thalassiosira aculeata Proshkina-Lavrenko, 1956
 Thalassiosira adamsi Mertz, 1966
 Thalassiosira adeliae Manguin, 1957
